--- a/data/trans_camb/P54_A_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_1_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>63,15</t>
+          <t>65,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>65,88</t>
+          <t>66,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>67,53</t>
+          <t>63,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>68,91</t>
+          <t>65,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>65,63</t>
+          <t>64,38</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>67,55</t>
+          <t>66,33</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,33; 71,22</t>
+          <t>53,84; 76,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58,65; 72,35</t>
+          <t>55,9; 77,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,34; 73,36</t>
+          <t>51,34; 72,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63,02; 74,78</t>
+          <t>55,29; 75,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,72; 70,37</t>
+          <t>57,1; 71,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>62,94; 71,69</t>
+          <t>59,6; 73,92</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>237,25%</t>
+          <t>238,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>247,51%</t>
+          <t>242,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>247,38%</t>
+          <t>202,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>252,43%</t>
+          <t>211,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>243,21%</t>
+          <t>219,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>250,31%</t>
+          <t>226,17%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>164,48; 345,86</t>
+          <t>139,23; 415,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>176,1; 335,77</t>
+          <t>147,56; 446,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>190,45; 327,32</t>
+          <t>123,68; 322,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>194,09; 337,03</t>
+          <t>129,34; 340,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>197,88; 306,42</t>
+          <t>159,35; 323,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>200,93; 311,1</t>
+          <t>166,38; 335,91</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>52,36</t>
+          <t>48,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>56,2</t>
+          <t>53,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,13</t>
+          <t>54,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>58,98</t>
+          <t>56,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>54,23</t>
+          <t>51,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,56</t>
+          <t>54,89</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,93; 57,26</t>
+          <t>39,07; 56,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,55; 60,69</t>
+          <t>46,06; 59,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,12; 60,26</t>
+          <t>48,39; 61,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>54,23; 62,87</t>
+          <t>50,22; 62,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,26; 57,64</t>
+          <t>45,75; 56,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,26; 60,49</t>
+          <t>50,36; 59,49</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>142,59%</t>
+          <t>124,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>153,05%</t>
+          <t>134,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>154,46%</t>
+          <t>141,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>162,31%</t>
+          <t>146,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>148,41%</t>
+          <t>133,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>157,53%</t>
+          <t>140,55%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>115,93; 173,31</t>
+          <t>88,68; 171,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>126,83; 184,39</t>
+          <t>101,92; 179,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>127,25; 182,74</t>
+          <t>108,0; 185,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>133,65; 190,53</t>
+          <t>112,61; 187,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>130,29; 168,88</t>
+          <t>107,22; 163,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>139,32; 178,06</t>
+          <t>116,74; 169,48</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,62</t>
+          <t>39,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>47,98</t>
+          <t>45,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39,44</t>
+          <t>34,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>42,48</t>
+          <t>36,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,65</t>
+          <t>36,62</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,4</t>
+          <t>40,62</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,31; 49,33</t>
+          <t>29,64; 47,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,97; 54,02</t>
+          <t>36,27; 53,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,85; 45,05</t>
+          <t>27,5; 41,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,06; 48,12</t>
+          <t>30,42; 43,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,35; 45,8</t>
+          <t>31,1; 42,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,33; 49,32</t>
+          <t>35,56; 45,86</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>79,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>103,66%</t>
+          <t>91,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>72,47%</t>
+          <t>57,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>78,06%</t>
+          <t>61,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>82,94%</t>
+          <t>66,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>73,63%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,36; 119,84</t>
+          <t>52,13; 110,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>80,66; 130,78</t>
+          <t>64,66; 128,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>57,84; 90,32</t>
+          <t>41,96; 77,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>63,09; 98,72</t>
+          <t>45,92; 82,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>69,69; 97,74</t>
+          <t>52,81; 83,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>77,86; 105,36</t>
+          <t>60,03; 91,74</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>51,48</t>
+          <t>54,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>55,24</t>
+          <t>55,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>53,54</t>
+          <t>55,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>56,14</t>
+          <t>60,39</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>52,56</t>
+          <t>55,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>55,73</t>
+          <t>57,93</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>47,16; 55,04</t>
+          <t>49,21; 59,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,72; 58,68</t>
+          <t>49,42; 60,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>50,09; 56,52</t>
+          <t>50,87; 60,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>52,94; 58,88</t>
+          <t>55,43; 64,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,16; 55,22</t>
+          <t>51,32; 58,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>53,56; 57,94</t>
+          <t>54,11; 61,53</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>135,48%</t>
+          <t>150,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>145,38%</t>
+          <t>154,35%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>134,18%</t>
+          <t>156,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>140,7%</t>
+          <t>169,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>135,0%</t>
+          <t>153,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>143,15%</t>
+          <t>161,54%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>116,92; 155,44</t>
+          <t>127,0; 184,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>127,62; 167,35</t>
+          <t>126,88; 184,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>117,57; 151,27</t>
+          <t>130,94; 186,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>124,3; 157,72</t>
+          <t>142,23; 198,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>123,69; 149,12</t>
+          <t>135,66; 173,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>131,51; 156,75</t>
+          <t>141,94; 182,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>51,77</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>55,1</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>53,04</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>56,18</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>52,45</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>55,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>48,01; 56,08</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>51,38; 58,63</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>50,18; 56,1</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>53,21; 59,09</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>49,94; 54,99</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>53,48; 58,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>136,14%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>144,9%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>132,71%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>140,56%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>134,55%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>142,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>118,23; 160,0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>126,55; 166,52</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>119,48; 150,91</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>124,2; 157,97</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>123,18; 148,56</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>130,49; 156,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P54_A_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_1_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>65,55</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>66,66</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>63,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>65,75</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>64,38</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>66,33</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>66.49431680901931</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>66.38770979870858</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>63.66006916881224</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>65.685309330466</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>65.12607335402933</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>66.18575431659725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>53,84; 76,33</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>55,9; 77,65</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>51,34; 72,57</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>55,29; 75,5</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>57,1; 71,79</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>59,6; 73,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>54.34078493093536</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>55.36467424341321</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>51.6101995106888</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>55.11280022736202</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>57.27688327138169</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>59.2325242005227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>238,01%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>242,05%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>202,68%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>211,25%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>219,53%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>226,17%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>75.98767875092031</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>77.59623498146539</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>73.54022592004324</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>75.3699311264172</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>73.01448352146322</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>73.75693466469012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>139,23; 415,04</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>147,56; 446,44</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>123,68; 322,21</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>129,34; 340,02</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>159,35; 323,13</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>166,38; 335,91</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>2.414442630706638</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>2.410571675672004</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>2.045277096841288</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>2.110344216188103</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>2.220569589428302</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.256700975811493</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>48,84</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>53,04</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>54,94</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>56,69</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>51,98</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>54,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>1.407683288123804</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>1.475886066566212</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>1.239181230665121</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>1.291869010078417</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>1.583316622746464</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>1.665853838536772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>39,07; 56,48</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>46,06; 59,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>48,39; 61,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>50,22; 62,69</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>45,75; 56,83</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>50,36; 59,49</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>4.144971528552218</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>4.465792502285263</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>3.378484335944384</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>3.410866497608427</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>3.271870299853969</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.36352388908575</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>124,14%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>134,82%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>141,64%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>146,15%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>133,1%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>140,55%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>48.96263592783254</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>53.1205432061616</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>55.23532806105032</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>56.59307292497449</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>52.18726137203519</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>54.874249963708</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>88,68; 171,96</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>101,92; 179,73</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>108,0; 185,98</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>112,61; 187,26</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>107,22; 163,04</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>116,74; 169,48</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>39.58290601590291</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>46.25952924386489</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>48.72397990320183</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>50.14943382865113</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>46.77883896593849</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>50.27925853860352</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>39,4</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>45,23</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>34,4</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>36,66</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>36,62</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>40,62</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>56.63349860561888</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>59.98462171956957</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>61.60789643191077</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>62.6004893356823</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>57.39984706930693</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>59.37979406231252</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>29,64; 47,84</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>36,27; 53,16</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>27,5; 41,09</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>30,42; 43,64</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>31,1; 42,21</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>35,56; 45,86</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1.244436947192622</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.35011453872957</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.424063143300998</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.459068175163642</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.336197484321213</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.404994874760959</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>79,52%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>91,28%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>57,31%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>61,09%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>66,38%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>73,63%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.8998150364315427</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>1.023476883283216</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>1.095217404662374</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>1.126852157344513</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1.088238683718914</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>1.166894213352444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>52,13; 110,95</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>64,66; 128,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>41,96; 77,35</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>45,92; 82,12</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>52,81; 83,22</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>60,03; 91,74</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.718927405034016</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1.799717520336074</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.841227065023854</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.871332434484086</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.644899436092395</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.690676155837964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +928,332 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>54,36</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>55,74</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>55,75</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>60,39</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>55,03</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>57,93</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>40.04561236931502</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>45.34797803864804</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>34.68648490478641</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>36.6748821722429</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>37.04988132991741</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>40.67763846196449</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>49,21; 59,57</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>49,42; 60,66</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>50,87; 60,24</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>55,43; 64,4</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>51,32; 58,37</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>54,11; 61,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>30.07957510394004</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>36.28706070869215</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>27.9649458701051</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>30.5060324755994</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>31.61579251136755</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>35.65087882665363</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>150,52%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>154,35%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>156,7%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>169,74%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>153,45%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>161,54%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>48.38090145658471</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>53.32763745739565</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>41.43770440895231</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>43.79775253061146</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>42.42784044980278</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>45.96169599762569</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>127,0; 184,9</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>126,88; 184,68</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>130,94; 186,93</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>142,23; 198,97</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>135,66; 173,57</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>141,94; 182,99</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.8081470808531125</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.9151523451943989</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.5779731257856816</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.6111053439141594</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.6716283837837786</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.7373912033097189</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>51,77</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>55,1</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>53,04</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>56,18</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>52,45</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>55,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.5334028476389798</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.6466064950928172</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.4269216453411898</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0.4598559653461852</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.5374854565954683</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.6021172928120928</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>48,01; 56,08</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>51,38; 58,63</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>50,18; 56,1</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>53,21; 59,09</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>49,94; 54,99</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>53,48; 58,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.12514408338116</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1.282572752003505</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.7812940929306198</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.8232997467989395</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.8424394712999044</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.91962716708293</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>136,14%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>144,9%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>132,71%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>140,56%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>134,55%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>142,85%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>48.67626279671162</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>52.51904501490638</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>48.79048627158392</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>50.52340021215008</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>48.73596157073804</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>51.47681751109008</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>118,23; 160,0</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>126,55; 166,52</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>119,48; 150,91</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>124,2; 157,97</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>123,18; 148,56</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>130,49; 156,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>42.82367181067688</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>47.65585078184421</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>44.35957951888702</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>45.92855017864752</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>45.026363174713</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>48.25247711214951</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>54.18790123741605</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>56.90666238661637</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>54.00880290041978</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>54.87363515200153</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>51.75756968462296</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>54.73416422820547</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.186299627808559</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.279952896430113</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>1.069585430398005</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1.107574383667419</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>1.122375709093631</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>1.185496862969113</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.9377747513253784</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>1.050869518336887</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.8945754686692919</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0.924862390031418</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0.9708737651748682</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>1.043295283516169</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.462876950189084</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.549335802232888</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.308569969294712</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1.315044921945467</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>1.265495223598331</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1.349520090103057</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
